--- a/tbl打包工具/excel/talkConfig.xlsx
+++ b/tbl打包工具/excel/talkConfig.xlsx
@@ -22,126 +22,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>袁绍与河内太守王匡屯河内，韩馥留邺供给军粮，豫州刺史孔伷屯颍川，兖州刺史刘岱、陈留太守张邈、广陵太守张超、东郡太守桥瑁、山阳太守袁遗、济北相鲍信与曹操屯酸枣，后将军袁术屯鲁阳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id_str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝光和七年（184年）全国大旱，冀州巨鹿人张角高喊“苍天已死，黄天当立，岁在甲子，天下大吉”，利用奇书《太平要术》，率领三十六方渠帅掀起了大规模叛乱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月，汉灵帝以外戚何进为大将军，统率左右羽林军屯兵洛阳，拱卫京师。命左中郎将皇甫嵩、右中郎将朱儁率步骑四万重点进攻颍川黄巾军。北中郎将卢植率北军讨伐河北黄巾军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇甫嵩乘夜纵火，大败黄巾军，又与朱儁、曹操三军合击，斩杀黄巾军万人，取得长社大捷。皇甫嵩、朱儁乘胜进击汝南、陈国黄巾军，败波才部于阳翟，追围彭脱部于西华。西华之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西华之战后，皇甫嵩转战东郡，朱儁转战南阳。5月，朱儁与孙坚围攻南阳黄巾军，大破敌军。黄巾军余部在孙夏率领下逃至西鄂，被朱儁追至包围。西鄂之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月，皇甫嵩在东郡仓亭围追黄巾军。仓亭之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>10月，因卢植围攻广宗三月不下，汉灵帝改派东中郎将董卓接替卢植。董卓也被张角大败于曲阳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝命皇甫嵩为帅，进攻广宗黄巾军。广宗之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广宗之战中，张角病死，皇甫嵩大败张梁。 11月，皇甫嵩转战曲阳，与巨鹿太守郭典攻围攻曲阳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉灵帝中平三年（186年）边章、韩遂在凉州作乱，汉灵帝派司空张温以车骑将军身份西征平叛。张温统率诸郡的步、骑兵十余万驻扎在美阳。美阳之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11月，张温派周慎率领三万人追剿边章、韩遂，率军将榆中城团团围住。榆中之战开始。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张温又派董卓率领三万人去讨伐羌族的先零部落。羌人与胡人在望垣以北将董卓团团围住。先零之战开始。</t>
+    <t>张温派董卓率领三万人去讨伐羌族的先零部落。羌人与胡人在望垣以北将董卓团团围住。先零之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至此，黄巾乱贼大部分已经被朝廷剿灭，西北叛乱也被招抚。诸将封赏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平元年（190年）正月，关东州郡起兵讨董，推举袁绍为盟主，袁绍自号车骑将军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年（191年），韩馥部将麴义反叛，韩馥讨伐不利，袁绍派使者与麴义结交，并领兵到延津，直至邺城。邺城之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月，在袁绍压力之下，韩馥搬出了官署，派自己的儿子把冀州牧的印绶送交袁绍。袁绍代领冀州牧，自称承制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年（191年）冬，袁术任命孙坚为豫州刺史，屯兵阳城。在孙坚出兵攻打董卓的时候，袁绍借机会任命周昂为豫州刺史，派兵袭取阳城。阳城之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳城之战中，公孙瓒的弟弟公孙越在作战中被流矢射中身亡，正在青州镇压黄巾军的公孙瓒怒不可遏。袁绍亲自领兵迎战公孙瓒，两军在界桥南二十里处交锋。界桥之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平三年（192年），袁术与袁绍开战，袁术向公孙瓒求援，公孙瓒令刘备屯高唐，单经屯平原，同时联合陶谦，用来威逼袁绍。平原之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平四年（193年）三月，魏郡发生兵变，造反的兵士和黑山军会合后，占领了邺城。六月，袁绍大举进剿黑山军，先发兵进入朝歌鹿肠山苍岩谷谷口讨伐于毒、张燕等。朝歌之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝歌之战中，袁绍接连击灭刘石、青牛角、黄龙、左校、郭大贤、李大目、于氐根等多支黑山部队。之后联手吕布，与张燕等黑山军在常山展开大战。常山之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴平二年，东郡太守臧洪因怨恨袁绍不出兵救张超，举东郡之兵与之对抗，袁绍兴兵围城一年。东郡之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平四年（193年），公孙瓒兼并了刘虞，刘虞旧部鲜于辅等招引乌桓、袁绍共集中十万大军，攻打公孙瓒于鲍丘。鲍丘之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙瓒无路可走，然后引火自焚。袁绍灭公孙瓒，兼有幽州、冀州、并州、青州，班师回邺城。诸将封赏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建安三年，袁绍率兵攻公孙瓒，公孙瓒只守不攻。建安四年春，公孙续和黑山军首领张燕带领十万救兵分三路向易京救援。后袁绍设伏，公孙瓒中计，领兵出战。易京之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平元年（190年）正月，曹操在陈留首倡义兵号召天下英雄讨伐董卓。关东州郡起兵讨董，推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操认为既然起兵讨董，就应有所行动，便率兵向西，准备进驻成皋，张邈派卫兹领兵随曹操。曹操行至荥阳汴水，与董卓大将徐荣交锋。荥阳之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平二年（191年），曹操在东郡追击于毒、白绕、眭固、於扶罗等黄巾乱贼。袁绍表曹操为东郡太守。东郡之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平三年（192年），青州黄巾军大获发展，连破兖州郡县，阵斩兖州刺史刘岱。济北相鲍信等人迎曹操出任兖州牧，曹操和鲍信合军进攻黄巾。济北之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平三年冬，曹操黄巾获降卒三十余万，人口百余万。曹操收其精锐，组成军队，号青州兵。初平四年（193年）春，曹操在匡亭六百里大追击大败袁术、黑山军、南匈奴。匡亭之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平四年春，徐州牧陶谦率军攻入兖州南部的任城，曹操率军征讨陶谦攻克徐州十余城。任城之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平四年3月，袁术进兵陈留攻曹操，袁绍助曹操击败袁术，曹操还军定陶。袁术出南阳，东走九江，杀扬州刺史陈温，占据淮南。陈留之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初平四年（193年）秋天，曹操的父亲曹嵩来曹操处路上，被陶谦派兵杀害，曹操遂进兵徐州，陶谦退守郯县。不久曹操军粮将尽，撤围回军。次年夏，曹操再征徐州，略地至东海。郯城之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴平元年，东郡守备陈宫对曹操不满，于是与陈留太守张邈、张邈之弟张超、从事中郎许汜及王楷等同谋叛乱，迎吕布为兖州牧。曹操从徐州赶回，遂进军围攻濮阳。濮阳之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴平二年（195年），曹操整军再战吕布，三败之，破定陶、廪丘等，平定兖州。吕布逃往徐州投靠刘备。定陶之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建安三年（198年）九月，曹操东征徐州，吕布见大势已去，下城投降。曹操将吕布、陈宫、高顺等人处死，收降吕布部将张辽以及泰山豪杰臧霸、孙观等人。诸将封赏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光和七年（184年）全国大旱，冀州巨鹿人张角高喊“苍天已死，黄天当立，岁在甲子，天下大吉”的口号，掀起了大规模叛乱。5月，朱儁与孙坚围攻南阳黄巾军，宛城之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2月，张曼成率南阳黄巾军主力进攻中原战略要地宛城，4月，波才率部击败朱儁，进围皇甫嵩于长社。长社之战开始。</t>
-  </si>
-  <si>
-    <t>皇甫嵩乘夜纵火，大败黄巾军，又与朱儁、曹操三军合击，斩杀黄巾军万人，取得长社大捷。皇甫嵩、朱儁乘胜进击汝南、陈国黄巾军，败波才部于阳翟，追围彭脱部于西华。西华之战开始。</t>
-  </si>
-  <si>
-    <t>西华之战后，皇甫嵩转战东郡，朱儁转战南阳。5月，朱儁与孙坚围攻南阳黄巾军，大破敌军。黄巾军余部在孙夏率领下逃至西鄂，被朱儁追至包围。西鄂之战开始。</t>
-  </si>
-  <si>
-    <t>8月，皇甫嵩在东郡仓亭围追黄巾军。仓亭之战开始。</t>
-  </si>
-  <si>
-    <t>朕命皇甫嵩为帅，进攻广宗黄巾军。广宗之战开始。</t>
-  </si>
-  <si>
-    <t>广宗之战中，张角病死，皇甫嵩大败张梁。 11月，皇甫嵩转战曲阳，与巨鹿太守郭典攻围攻曲阳。</t>
-  </si>
-  <si>
-    <t>2月，汉灵帝以外戚何进为大将军，统率左右羽林军屯兵洛阳，拱卫京师。命左中郎将皇甫嵩、右中郎将朱儁率步骑四万重点进攻颍川黄巾军。北中郎将卢植率北军讨伐河北黄巾军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平二年（191年），韩馥部将麴义反叛，韩馥讨伐不利，袁绍派使者与麴义结交，并领兵到延津，直至邺城。邺城之战开始。</t>
-  </si>
-  <si>
-    <t>7月，在袁绍压力之下，韩馥搬出了官署，派自己的儿子把冀州牧的印绶送交袁绍。袁绍代领冀州牧，自称承制。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平二年（191年）冬，袁术任命孙坚为豫州刺史，屯兵阳城。在孙坚出兵攻打董卓的时候，袁绍借机会任命周昂为豫州刺史，派兵袭取了阳城。</t>
-  </si>
-  <si>
-    <t>阳城之战中，公孙瓒的弟弟公孙越在作战中被流矢射中身亡，正在青州镇压黄巾军的公孙瓒怒不可遏。袁绍亲自领兵迎战公孙瓒，两军在界桥南二十里处交锋。界桥之战开始。</t>
-  </si>
-  <si>
-    <t>初平三年（192年），袁术与袁绍开战，袁术向公孙瓒求援，公孙瓒令刘备屯高唐，单经屯平原，同时联合陶谦，用来威逼袁绍。平原之战开始。</t>
-  </si>
-  <si>
-    <t>初平四年（193年）三月，魏郡发生兵变，造反的兵士和黑山军会合后，占领了邺城。六月，袁绍大举进剿黑山军，先发兵进入朝歌鹿肠山苍岩谷谷口讨伐于毒、张燕等。朝歌之战开始。</t>
-  </si>
-  <si>
-    <t>兴平二年，东郡太守臧洪因怨恨袁绍不出兵救张超，举东郡之兵与之对抗，袁绍兴兵围城一年。东郡之战开始。</t>
-  </si>
-  <si>
-    <t>朝歌之战中，袁绍接连击灭刘石、青牛角、黄龙、左校、郭大贤、李大目、于氐根等多支黑山部队。之后联手吕布，与张燕等黑山军在常山展开大战。常山之战开始。</t>
-  </si>
-  <si>
-    <t>初平四年（193年），公孙瓒兼并了刘虞，刘虞旧部鲜于辅等招引乌桓袁绍共集中十万大军，攻打公孙瓒于鲍丘。鲍丘之战开始。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建安四年春，公孙续和黑山军首领张燕带领十万救兵分三路向易京进发。公孙瓒中计，领兵攻出来。易京之战开始。</t>
-  </si>
-  <si>
-    <t>曹操认为既然起兵讨董，就应有所行动，便率兵向西，准备进驻成皋，张邈派卫兹领兵随曹操。曹操行至荥阳汴水，与董卓大将徐荣交锋。荥阳之战开始。</t>
-  </si>
-  <si>
-    <t>初平二年（191年），曹操在东郡追击于毒、白绕、眭固、於扶罗等黄巾乱贼。</t>
-  </si>
-  <si>
-    <t>袁绍表曹操为东郡太守。初平三年（192年），青州黄巾军大获发展，连破兖州郡县，阵斩兖州刺史刘岱。济北相鲍信等人迎曹操出任兖州牧，曹操和鲍信合军进攻黄巾。济北之战开始。</t>
-  </si>
-  <si>
-    <t>当年冬天，黄巾被击败。曹操获降卒三十余万，人口百余万。曹操收其精锐，组成军队，号青州兵。初平四年（193年）春天，曹操在匡亭六百里大追击大败袁术、黑山军、南匈奴。匡亭之战开始。</t>
-  </si>
-  <si>
-    <t>初平四年春，徐州牧陶谦率军攻入兖州南部的任城，曹操率军征讨陶谦攻克徐州十余城。任城之战开始。</t>
-  </si>
-  <si>
-    <t>初平四年3月 袁术进兵陈留攻曹操，袁绍助曹操击败袁术，曹操还军定陶。袁术出南阳，东走九江，杀扬州刺史陈温，占据淮南。陈留之战开始。</t>
-  </si>
-  <si>
-    <t>初平四年（193年）秋天，曹操的父亲曹嵩来曹操处路上，被陶谦派兵杀害，曹操遂进兵徐州，陶谦退守郯县。不久曹操军粮将尽，撤围回军。次年夏，曹操再征徐州，略地至东海。郯城之战开始。</t>
-  </si>
-  <si>
-    <t>兴平元年，东郡守备陈宫对曹操不满，于是与陈留太守张邈、张邈之弟张超、从事中郎许汜及王楷等同谋叛乱，迎吕布为兖州牧。曹操从徐州赶回，遂进军围攻濮阳。濮阳之战开始。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴平二年（195年），曹操整军再战吕布，三败之，破定陶、廪丘等，平定兖州。吕布逃往徐州投靠刘备。定陶之战开始。</t>
-  </si>
-  <si>
-    <t>公孙瓒无路可走，然后引火自焚。袁绍灭公孙瓒，兼有幽州、冀州、并州、青州，班师回邺城。诸将封赏。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建安三年（198年）九月，曹操东征徐州，吕布见大势已去，下城投降。曹操将吕布、陈宫、高顺等人处死，收降吕布部将张辽以及泰山豪杰臧霸、孙观等人。诸将封赏。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中平三年 （186年）边章、韩遂在凉州作乱，车骑将军张温与孙坚统率诸郡的步骑兵十余万驻扎在美阳，边章、韩遂也进军美阳。美阳之战开始。</t>
-  </si>
-  <si>
-    <t>光和七年（184年）全国大旱，冀州巨鹿人张角高喊“苍天已死，黄天当立，岁在甲子，天下大吉”的口号，掀起了大规模叛乱。5月，朱儁与孙坚围攻南阳黄巾军，宛城之战开始。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉灵帝中平三年（186年）边章、韩遂在凉州作乱，汉灵帝派司空张温以车骑将军身份西征平叛。张温统率诸郡的步、骑兵十余万驻扎在美阳。美阳之战开始。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉灵帝光和七年（184年）全国大旱，冀州巨鹿人张角高喊“苍天已死，黄天当立，岁在甲子，天下大吉”，利用奇书《太平要术》，率领三十六方渠帅掀起了大规模叛乱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中平四年（187年）长沙义军首领区星率众作乱，朝廷派孙坚为长沙太守平叛。长沙之战开始。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长沙叛乱的同时，周朝、郭石等人也在零陵、桂阳一带起义，与区星遥相呼应。孙坚就越过郡界，前往征讨。桂阳之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平三年（186年）,边章、韩遂在凉州作乱，车骑将军张温与孙坚统率诸郡的步骑兵十余万驻扎在美阳，边章、韩遂也进军美阳。美阳之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平四年（187年），长沙义军首领区星率众作乱，朝廷派孙坚为长沙太守平叛。长沙之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中平四年，周朝、郭石等人在零陵、桂阳一带叛乱，与区星遥相呼应。孙坚就越过郡界，前往征讨。桂阳之战开始。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -150,18 +195,22 @@
   </si>
   <si>
     <t>初平二年（191年）2月，孙坚率豫州军向梁东进发，不料被徐荣包围。梁东之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>梁东之战后，孙坚进占太谷阳人，准备伺机再战。董卓立即派胡轸为大都护、吕布为骑督，带华雄等将前往迎击。阳人之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>阳人之战后，董卓亲自引兵与孙坚交战，结果遭到孙坚重创。孙坚挥兵，在洛阳宣阳城门与吕布接战，吕布最终不敌而败走，孙坚大军进入洛阳。洛阳之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>初平二年2月，反董联军解散。初平三年（192年）1月，孙坚受袁术调遣，征讨荆州刘表。刘表派黄祖迎击孙坚，孙坚大胜，乘胜追击。襄阳之战开始。</t>
-  </si>
-  <si>
-    <t>至此，黄巾乱贼大部分已经被朝廷剿灭，西北叛乱也被招抚。诸将封赏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至此，孙坚南征北战，击败董卓、刘表等，领豫州刺史。诸将封赏。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -170,6 +219,11 @@
   </si>
   <si>
     <t>初平二年，黄巾余党管亥率众军攻打北海，北海相孔融派太史慈突围向刘备求救。黄巾军闻知援军至，都四散而逃，孔融逐得以解围。北海之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴平元年（194年），曹操以为父报仇为名再度攻打徐州。田楷与刘备一起前往救援，陶谦表刘备为豫州刺史，叫他驻军在小沛。郯城之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>兴平二年（195年），陶谦死后，麋竺率徐州人民迎接刘备做太守，刘备不敢接受。在陈登、孔融的再三劝说下，刘备遂领徐州。</t>
@@ -181,60 +235,46 @@
   </si>
   <si>
     <t>广陵之战后，刘备向吕布求和，吕布将刘备的妻子归还给他，刘备回到小沛。不久，刘备再度召募了万余人的军队，吕布于是率军进攻小沛。小沛之战开始。</t>
-  </si>
-  <si>
-    <t>兴平元年（194年），曹操以为父报仇为名再度攻打徐州。田楷与刘备一起前往救援，陶谦表刘备为豫州刺史，叫他驻军在小沛。郯城之战开始。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建安三年（198年），吕布派高顺和张辽进攻刘备，曹操虽派夏侯惇援救，但被击败。刘备单身逃走，后与曹操联合进攻吕布。下邳之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>吕布投降后，刘备与曹操回到许都，被封为左将军。建安四年（199年），刘备与朱灵一起攻击袁术，袁术于途中病死，其后刘备进军下邳，杀徐州刺史车胄，并击退曹操援兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建安五年（200年）春季，衣带诏事发。曹操亲自东征刘备，刘备战败，关羽被擒。七月，袁绍使刘备领兵与刘辟经略汝南，关羽复归刘备。曹操派遣蔡阳前来攻打。汝南之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建安六年（201年），曹操亲自讨伐刘备，刘备往投刘表。刘表亲自到郊外迎接刘备，待以上宾之礼，遂屯于新野。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建安七年（202年），刘表命刘备带军北上，到叶县，夏侯惇、于禁、李典率军抵挡。刘备伪退，设下伏兵，李典觉得有诈乃劝之，夏侯惇不听。叶县之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建安十二年（207年），刘备前往隆中拜访诸葛亮，三顾茅庐之后，诸葛亮向刘备献上了隆中对。建安十三年，曹操亲率大军南下，而此时刘表病死，刘表次子刘琮代立，遣使者投降曹操。</t>
-  </si>
-  <si>
-    <t>建安十三年9月，屯驻于樊城的刘备听说刘琮投降，便带老百姓向江陵撤退。曹操亲率五千骑兵从襄阳疾驰三百里，在当阳长坂将刘备追上。当阳之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月，屯驻于樊城的刘备听说刘琮投降，便带老百姓向江陵撤退。曹操亲率五千骑兵从襄阳疾驰三百里，在当阳长坂将刘备追上。当阳之战开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>当阳之战后，刘备放弃妻子和儿子，与诸将等数十骑退至夏口，与江夏太守刘琦共守。赵云反身杀入曹军，将刘备幼子刘禅及甘夫人救出，与刘备在江夏会合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>孙权使者鲁肃见刘备、诸葛亮与长坂，说服刘备与孙权结盟。10月，曹操自江陵东下，至赤壁与孙、刘联军隔江对峙。赤壁之战开始。</t>
-  </si>
-  <si>
-    <t>至此，孙坚南征北战，击败董卓、刘表等，领豫州刺史。诸将封赏。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>赤壁之战，曹操大败，刘备顺势南收荆州四郡，又从孙权手中借江陵，占据荆州五郡。建安十四年10月，孙权表刘备为荆州牧，刘备与孙权之妹成亲。诸将封赏。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平元年（190年）正月，曹操在陈留首倡义兵号召天下英雄讨伐董卓。关东州郡起兵讨董，推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初平元年（190年）正月，关东州郡起兵讨董，推举袁绍为盟主，袁绍自号车骑将军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁绍与河内太守王匡屯河内，韩馥留邺供给军粮，豫州刺史孔伷屯颍川，兖州刺史刘岱、陈留太守张邈、广陵太守张超、东郡太守桥瑁、山阳太守袁遗、济北相鲍信与曹操屯酸枣，后将军袁术屯鲁阳。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id_str</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -604,7 +644,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -615,7 +655,7 @@
         <v>1001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -623,7 +663,7 @@
         <v>1002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -631,7 +671,7 @@
         <v>1003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -663,7 +703,7 @@
         <v>1007</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -671,7 +711,7 @@
         <v>1008</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -679,7 +719,7 @@
         <v>1009</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -687,7 +727,7 @@
         <v>1010</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -695,7 +735,7 @@
         <v>1011</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -703,7 +743,7 @@
         <v>1012</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -711,7 +751,7 @@
         <v>1013</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -719,7 +759,7 @@
         <v>2000</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -727,7 +767,7 @@
         <v>2001</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -735,7 +775,7 @@
         <v>2002</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -743,7 +783,7 @@
         <v>2003</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -751,7 +791,7 @@
         <v>2004</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -759,7 +799,7 @@
         <v>2005</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -767,7 +807,7 @@
         <v>2006</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -775,7 +815,7 @@
         <v>2007</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -783,7 +823,7 @@
         <v>2008</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -791,7 +831,7 @@
         <v>2009</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -799,7 +839,7 @@
         <v>2010</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -807,7 +847,7 @@
         <v>2011</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -815,7 +855,7 @@
         <v>2012</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -823,7 +863,7 @@
         <v>3001</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -831,7 +871,7 @@
         <v>3002</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -839,7 +879,7 @@
         <v>3003</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -847,7 +887,7 @@
         <v>3004</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -855,7 +895,7 @@
         <v>3005</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -863,7 +903,7 @@
         <v>3006</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -871,7 +911,7 @@
         <v>3007</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -879,7 +919,7 @@
         <v>3008</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -887,7 +927,7 @@
         <v>3009</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -895,7 +935,7 @@
         <v>3010</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -903,7 +943,7 @@
         <v>3011</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -911,7 +951,7 @@
         <v>4001</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -919,7 +959,7 @@
         <v>4002</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -927,7 +967,7 @@
         <v>4003</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -935,7 +975,7 @@
         <v>4004</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -943,7 +983,7 @@
         <v>4005</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -951,7 +991,7 @@
         <v>4006</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -959,7 +999,7 @@
         <v>4007</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -967,7 +1007,7 @@
         <v>4008</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -975,7 +1015,7 @@
         <v>4009</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -983,7 +1023,7 @@
         <v>4010</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -991,7 +1031,7 @@
         <v>5001</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -999,7 +1039,7 @@
         <v>5002</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -1007,7 +1047,7 @@
         <v>5003</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -1015,7 +1055,7 @@
         <v>5004</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -1023,7 +1063,7 @@
         <v>5005</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -1031,7 +1071,7 @@
         <v>5006</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -1039,7 +1079,7 @@
         <v>5007</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -1047,7 +1087,7 @@
         <v>5008</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -1055,7 +1095,7 @@
         <v>5009</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
@@ -1063,7 +1103,7 @@
         <v>5010</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -1071,7 +1111,7 @@
         <v>5011</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -1079,7 +1119,7 @@
         <v>5012</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -1087,7 +1127,7 @@
         <v>5013</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -1095,7 +1135,7 @@
         <v>5014</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -1103,7 +1143,7 @@
         <v>5015</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -1111,7 +1151,7 @@
         <v>5016</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/tbl打包工具/excel/talkConfig.xlsx
+++ b/tbl打包工具/excel/talkConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="145">
   <si>
     <t>bg</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,15 +70,450 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件剧情对应的时间，年-月，0标识无数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>186-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月，董卓废少帝刘辩为弘农王，立九岁的陈留王刘协为帝，是为献帝。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元189年（汉灵帝中平六年）4月，汉灵帝崩，皇子刘辩继位，史称少帝，母何太后临朝。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月，宦官杀大将军何进，袁绍尽诛宦官，董卓迎少帝于北邙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，如今董卓已西退长安，不易孤军深入。袁绍表主公为东郡太守，令主公前往剿灭于毒等黄巾乱贼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，我军发现于毒、白绕等黄巾逆贼，请主公速作战斗准备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜主公，我军大获全胜。请主公论功封赏，激励我军有功将士。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，近日，青州黄巾军大获发展，连破兖州（治昌邑）郡县，阵斩兖州刺史刘岱。济北相鲍信等人前来东郡迎接主公出任兖州牧，请主公和鲍信合军，前往兖州平叛黄巾乱军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，鲍信将军于黄巾乱军交战多日，不幸战死。现黄巾乱军聚于寿张城东，请主公速率军前往，为鲍信将军报仇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，请建造1级城墙，增强主城防护能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，请建造1级武库，用来存放我军战利品和装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，袁术于封丘挥军攻击我部，又联络黑山贼余部以及匈奴于扶罗等助战。请主公速往东郡迎战。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，袁术等已行军于匡亭附近，请主公速发兵备战。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，袁术退回九江郡并杀死扬州刺史陈温自领扬州牧。但徐州牧陶谦率军攻入任城郡，请主公速派兵支援。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元194年（汉献帝兴平元年）4月，曹操第二次东征陶谦，陈宫与陈留太守张邈等同谋叛乱，迎吕布为兖州牧，反曹操，曹操从徐州赶回，和吕布于濮阳大战百余日。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月，陶谦病亡，刘备领徐州牧。 同年，益州刺史刘焉病死，其子刘璋继任。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>194-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>194-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>195-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，我军应趁势收复东郡，从而重新掌控兖州。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>公元184年（汉灵帝光和七年）2月，冀州巨鹿人张角高喊“苍天已死，黄天当立，岁在甲子，天下大吉”的口号，利用奇书《太平要术》笼络人心，掀起了推翻汉王朝的大规模起义，史称黄巾之乱。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10月，汉灵帝调遣皇甫嵩为帅，进攻广宗黄巾军。张角病死，皇甫蒿大败张梁等。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11月，皇甫蒿转战曲阳，与巨鹿太守郭典攻下曲阳，张宝战死。</t>
+    <t>恭喜主公获得太守一职，请主公立刻开府理事（建造1级官府），保一方太平。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>184-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜主公，皇帝宣布解除党锢，组织政府军平定叛乱，册封主公为骑都尉。命主公在关中一带招募了士兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜主公，皇帝宣布解除党锢，组织政府军平定叛乱，册封主公为骑都尉。命主公在河北一带招募了士兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜主公，皇帝宣布解除党锢，组织政府军平定叛乱，册封主公为骑都尉。命主公在关东一带招募了士兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜主公，皇帝宣布解除党锢，组织政府军平定叛乱，册封主公为佐军司马，命主公在淮泗一带招募了士兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜主公，皇帝宣布解除党锢，组织政府军平定叛乱，册封主公为安喜尉。命主公在幽燕一带招募了士兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，朝廷命一个月内招募三千士兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>184-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，士兵已经招募完毕，请组建武将部曲，准备平叛乱军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，卢植和董卓多次围攻广宗张角，无功而返。10月，朝廷命令皇甫蒿北上平叛，并命令我军支援… …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，皇甫蒿8月已经率军达到东郡仓亭，准备扫除兖州乱军，朝廷急诏我军前去汇合… …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，5月皇甫嵩与朱儁将军被颍川郡黄巾军波才部大败，被围困在长社，军心不稳。朝廷急诏我军速速支援… …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，8月朱儁将军和荆州刺史徐璆合兵进击宛城黄巾乱贼赵弘部，苦战三月，不能取胜。朝廷急诏我军速速支援… …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，10月张角病死张梁战死，11月皇甫嵩与巨鹿太守郭典攻打下曲阳。朝廷急诏我军速速支援… …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，皇甫蒿将军已经完成了对广宗张梁乱军的包围，将军命令我军准备参加攻城战斗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，皇甫蒿将军已经完成了对仓亭乱军的包围，将军命令我军准备参加攻城战斗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，皇甫嵩将军于长社城外纵火，黄巾军大乱。我军应立即加入战斗，合兵追击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，朱儁将军已经完成了对宛城乱军的包围，将军命令我军准备参加攻城战斗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，皇甫蒿将军已经完成了对曲阳乱军的包围，将军命令我军准备参加攻城战斗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元184年（汉灵帝光和七年）年底，由皇甫嵩、朱儁等人率领的政府军剿灭各地黄巾军，汉灵帝刘宏为表天下安宁，于是改元中平。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元186年（汉灵帝中平三年），边章、韩遂作乱，凉州沦陷，朝廷派司空张温西讨边章等乱兵。皇帝命令我军随行平乱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元186年（汉灵帝中平三年），渔阳郡人张纯联合乌桓在幽州发动叛乱，皇帝命令我军前往平乱。</t>
+  </si>
+  <si>
+    <t>公元186年（汉灵帝中平三年），兖州黄巾余孽死灰复燃，皇帝命令我军前往昌邑平乱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜主公，多年平叛有功，被朝廷任命为河间国相。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜主公，多年平叛有功，被朝廷任命为渤海太守。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜主公，多年平叛有功，被朝廷任命为长沙太守。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜主公，多年平叛有功，被朝廷任命为平原国相。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，现董卓废少帝，改立陈留王为汉献帝，自称太师，专擅朝政。主公可去晋阳招募可战之兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，现董卓废少帝，改立陈留王为汉献帝，自称太师，专擅朝政。主公可去易阳招募可战之兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，现董卓废少帝，改立陈留王为汉献帝，自称太师，专擅朝政。主公可去陈留招募可战之兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，现董卓废少帝，改立陈留王为汉献帝，自称太师，专擅朝政。主公可去襄阳招募可战之兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，现董卓废少帝，改立陈留王为汉献帝，自称太师，专擅朝政。主公可去郯城招募可战之兵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，士兵已经招募完毕，请组建武将部曲，准备准备讨伐董贼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元195年（汉献帝兴平二年）12月，袁绍以长子袁谭为青州刺史，以次子袁熙为幽州刺史，以外甥高干为并州刺史。袁绍继续致力于讨伐公孙瓒，公孙瓒于易京的筑台固守。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>191-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>191-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元190年（汉献帝初平元年）1月，各路诸侯起兵反董卓，推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联军有：勃海太守袁绍、后将军袁术、冀州牧韩馥、豫州刺史孔伷、兖州刺史刘岱、河内太守王匡、陈留太守张邈、广陵太守张超、东郡太守桥瑁、山阳太守袁遗、济北相鲍信。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，各群雄都推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。请主公屯兵箕关一带。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，各群雄都推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。请主公屯兵黎阳一带。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，各群雄都推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。请主公屯兵酸枣一带。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，各群雄都推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。请主公屯兵鲁阳一带。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，各群雄都推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。请主公屯兵官渡一带。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，董卓焚洛阳，迁都长安，我军主公应率兵进驻怀县，为天下做表率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，大事不好，青州黄巾军大获发展，渤海郡出现大量黄巾乱贼，请主公速派兵平定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，董卓焚洛阳，迁都长安，董卓大将徐荣驻守荥阳，我军主公应率兵西进，为天下做表率。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，董卓听说我军进占阳人，已派胡轸为大都护、吕布为骑督，带领人马前来进攻我军，请主公速速迎战。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，并州黄巾余孽张燕联合匈奴诸部作乱，攻占西河多县，请主公速速平乱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，袁绍率军攻打青州刺史田楷，公孙瓒命我军速速支援平原。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,371 +521,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StoryBg_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>184-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>184-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>184-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件剧情对应的时间，年-月，0标识无数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公元186年（汉灵帝中平三年）8月，边章、韩遂在凉州作乱，汉灵帝派司空张温以车骑将军身份西征平叛，张温上表要求孙坚协同出征。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>186-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>188-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公元188年（汉灵帝中平五年）8月，汉灵帝设置西园八校尉：蹇硕为上军校尉，袁绍为中军校尉，鲍鸿为下军校尉，曹操为典军校尉，夏牟为左校尉，淳于琼为右校尉，赵融为助军左校尉，冯芳为助军右校尉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜主公，朝廷册封主公为骑都尉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主公，皇甫嵩与朱儁将军率领四万多人在颍川郡镇压黄巾军，被黄巾军波才部大败。皇甫嵩被波才围困在长社，城中兵少，众寡悬殊，军心不稳。朝廷急诏我军速速支援… …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报… …主公，皇甫嵩将军于长社城外纵火，黄巾军大乱，惊慌后撤。我军应立即加入战斗，和皇甫嵩和朱儁将军合兵，乘胜追击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主公，我军大破黄巾军，斩首数万级。朝廷封主公为济南相。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜主公，被朝廷任命为西园八校尉中的典军校尉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>189-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9月，董卓废少帝刘辩为弘农王，立九岁的陈留王刘协为帝，是为献帝。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公元189年（汉灵帝中平六年）4月，汉灵帝崩，皇子刘辩继位，史称少帝，母何太后临朝。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>189-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>189-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8月，宦官杀大将军何进，袁绍尽诛宦官，董卓迎少帝于北邙。</t>
+    <t>主公，豫州刺史孙坚现正在出兵攻打董卓，我军应借机派兵袭取阳城。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，东郡黄巾余孽死灰复燃，袁绍令主公前往剿灭于毒等黄巾乱贼，稳定联军后方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，我军所向披靡，在阳人城下大败董卓、胡珍等人。董卓焚雒阳，迁都长安。请主公趁机出兵雒阳，收复京师。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报… …主公，黄巾余党管亥率军攻打北海，北海相孔融派太史慈突围向主公求救。请主公速点兵马前往救援。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，我军已作战多年，朝廷封主公为太原太守。请主公论功封赏，激励我军有功将士。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，我军已作战多年。请主公论功封赏，激励我军有功将士。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜主公，多年平叛有功，被朝廷任命为济南国相。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，我军已作战多年，袁绍表主公为东郡太守。请主公论功封赏，激励我军有功将士。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，我军已作战多年，请主公论功封赏，激励我军有功将士。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，我军已作战多年，公孙瓒举主公为平原太守。请主公论功封赏，激励我军有功将士。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙度占据辽东，刘虞、公孙瓒占据幽州，陶谦占据徐州，刘焉占据益州，袁绍占据冀州，张鲁占据汉中，张杨占据河内，马腾、韩遂占据凉州，袁术占据南阳，刘表占据荆州。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoryBg_23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元192年（汉献帝初平三年）4月，王允设连环计，吕布杀死董卓，诸侯割据形成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公元193年（汉献帝初平四年）9月，曹操的父亲曹嵩来曹操处路上，被陶谦派兵杀害，曹操东征徐州，大败陶谦。公孙瓒派刘备率兵救陶谦，曹操军粮将尽，撤围回军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主公，割据之势已成，请主公立刻开府理事（建造1级官府），保一方太平。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192-6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>StoryBg_13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主公，现董卓废少帝，改立陈留王为汉献帝，自称太师，专擅朝政。主公应逃出京师雒阳，回陈留“散家财，合义兵”。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>190-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联军有：勃海太守袁绍、后将军袁术、冀州牧韩馥、豫州刺史孔伷、兖州刺史刘岱、河内太守王匡、陈留太守张邈、广陵太守张超、东郡太守桥瑁、山阳太守袁遗、济北相鲍信。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公元190年（汉献帝初平元年）1月，各路诸侯起兵反董卓,各群雄都推举袁绍为盟主，袁绍自号车骑将军，曹操被授行奋武将军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主公，讨董联军推荐主公代理奋武将军。命济北相鲍信与主公屯兵酸枣一带，请主公带兵前往回合。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主公，董卓焚洛阳，迁都长安，关东联军诸将惧怕董卓，不敢进攻。主公应率兵西进，有所行动，为天下做表率。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报… …主公，大事不好，董卓大将徐荣领兵前来，我军应速作应战准备。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主公，如今董卓已西退长安，不易孤军深入。袁绍表主公为东郡太守，令主公前往剿灭于毒等黄巾乱贼。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公元191年（汉献帝初平二年）2月，孙坚率豫州军攻入洛阳，反董联军解散。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>191-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7月，袁绍自领冀州牧。诸侯割据形成：公孙度占辽东，公孙瓒占幽州，陶谦占徐州，刘焉占益州，袁绍占冀州，张鲁占汉中，张杨占河内，马腾、韩遂占凉州，袁术占南阳，刘表占荆州，董卓占关中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>191-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报… …主公，我军发现于毒、白绕等黄巾逆贼，请主公速作战斗准备。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜主公，我军大获全胜。请主公论功封赏，激励我军有功将士。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报… …主公，近日，青州黄巾军大获发展，连破兖州（治昌邑）郡县，阵斩兖州刺史刘岱。济北相鲍信等人前来东郡迎接主公出任兖州牧，请主公和鲍信合军，前往兖州平叛黄巾乱军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报… …主公，鲍信将军于黄巾乱军交战多日，不幸战死。现黄巾乱军聚于寿张城东，请主公速率军前往，为鲍信将军报仇。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6月，李傕、郭汜等围攻长安。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公元192年（汉献帝初平三年）4月，王允设连环计，吕布杀死董卓。鲍信等人至东郡迎曹操领兖州牧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公元192年（汉献帝初平三年）5月，兖州牧曹操击败青州黄巾军于寿张东，收编黄巾军三十余万人，人口百余万。选其精壮建“青州兵”，曹操实力得以壮大。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>192-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恭喜主公获得太守一职，请主公立刻开府理事（建造1级官府），保一方太平。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主公，请建造1级城墙，增强主城防护能力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主公，请建造1级武库，用来存放我军战利品和装备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报… …主公，袁术于封丘挥军攻击我部，又联络黑山贼余部以及匈奴于扶罗等助战。请主公速往东郡迎战。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报… …主公，袁术等已行军于匡亭附近，请主公速发兵备战。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主公，袁术退回九江郡并杀死扬州刺史陈温自领扬州牧。但徐州牧陶谦率军攻入任城郡，请主公速派兵支援。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公元193年（汉献帝初平四年）9月，曹操的父亲曹嵩来曹操处路上，被陶谦派兵杀害，曹操东征徐州，大败陶谦。公孙瓒派刘备率兵救陶谦，曹操军粮将尽，撤围回军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>193-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公元194年（汉献帝兴平元年）4月，曹操第二次东征陶谦，陈宫与陈留太守张邈等同谋叛乱，迎吕布为兖州牧，反曹操，曹操从徐州赶回，和吕布于濮阳大战百余日。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12月，陶谦病亡，刘备领徐州牧。 同年，益州刺史刘焉病死，其子刘璋继任。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>194-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>194-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>195-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公元195年（汉献帝兴平二年）12月，袁绍以长子袁谭为青州刺史，以次子袁熙为幽州刺史，以外甥高干为并州刺史。袁绍继续致力于讨伐公孙瓒，公孙瓒于易京的筑台固守。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主公，我军应趁势收复东郡，从而重新掌控兖州。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StoryBg_23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -812,15 +955,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E61" activeCellId="3" sqref="E61 E61 E61 E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="13.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="173.5" style="3" customWidth="1"/>
   </cols>
@@ -836,7 +979,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
@@ -853,10 +996,10 @@
         <v>6004</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -864,16 +1007,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1">
-        <v>1002</v>
+        <v>801</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -881,16 +1024,16 @@
         <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1">
-        <v>1002</v>
+        <v>801</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -898,16 +1041,16 @@
         <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1">
-        <v>4001</v>
+        <v>801</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -915,16 +1058,16 @@
         <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>2001</v>
+        <v>4001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -932,16 +1075,16 @@
         <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1">
-        <v>1001</v>
+        <v>6007</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -949,16 +1092,16 @@
         <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1">
         <v>6001</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
+      <c r="D8" s="1">
+        <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -966,67 +1109,67 @@
         <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
         <v>1001</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
         <v>109</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2001</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
         <v>110</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2001</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>49</v>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>111</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>62</v>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C12" s="4">
         <v>4001</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1034,16 +1177,16 @@
         <v>112</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4">
         <v>2001</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1051,16 +1194,16 @@
         <v>113</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4">
         <v>6001</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1068,16 +1211,16 @@
         <v>114</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="C15" s="4">
-        <v>3001</v>
+        <v>6002</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>80</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1085,16 +1228,16 @@
         <v>115</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C16" s="4">
-        <v>1007</v>
+        <v>802</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>77</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1102,16 +1245,16 @@
         <v>116</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="C17" s="4">
-        <v>9001</v>
+        <v>802</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1119,16 +1262,16 @@
         <v>117</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="C18" s="4">
-        <v>3001</v>
+        <v>9001</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1136,16 +1279,16 @@
         <v>118</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="C19" s="4">
-        <v>5001</v>
+        <v>3001</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -1153,58 +1296,58 @@
         <v>119</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="C20" s="4">
+        <v>5001</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="4">
+        <v>120</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="4">
         <v>2001</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>3001</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3001</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>3002</v>
+      <c r="D21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
+        <v>1001</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="1">
-        <v>7007</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>3003</v>
+        <v>1002</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1">
         <v>1002</v>
@@ -1213,49 +1356,49 @@
         <v>0</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
-        <v>3004</v>
+        <v>1003</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1">
-        <v>3001</v>
+        <v>1002</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
-        <v>3005</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="4">
+        <v>1004</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3001</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>3006</v>
+        <v>1005</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1">
         <v>6001</v>
@@ -1264,32 +1407,32 @@
         <v>0</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>3007</v>
+        <v>1006</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
-        <v>3001</v>
+        <v>6001</v>
       </c>
       <c r="D27" s="1">
         <v>0</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>51</v>
+      <c r="E27" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="1">
-        <v>3008</v>
+      <c r="A28" s="4">
+        <v>1007</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1">
         <v>6001</v>
@@ -1297,234 +1440,864 @@
       <c r="D28" s="1">
         <v>0</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1">
-        <v>3009</v>
+      <c r="E28" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="4">
+        <v>1008</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>1004</v>
+        <v>7006</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>56</v>
+      <c r="E29" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
-        <v>3010</v>
+      <c r="A30" s="4">
+        <v>1009</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="1">
+        <v>18</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1001</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="4">
         <v>2001</v>
       </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="1">
-        <v>3011</v>
-      </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="1">
-        <v>3001</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>84</v>
+        <v>18</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2001</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>3012</v>
+        <v>2002</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C32" s="1">
-        <v>6005</v>
+        <v>1002</v>
       </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>3013</v>
+        <v>2003</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1">
-        <v>3001</v>
+        <v>1002</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="1">
-        <v>3014</v>
+      <c r="A34" s="4">
+        <v>2004</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3001</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>73</v>
+        <v>18</v>
+      </c>
+      <c r="C34" s="4">
+        <v>2001</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>3015</v>
+        <v>2005</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C35" s="1">
-        <v>3001</v>
+        <v>6001</v>
       </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
-        <v>3016</v>
+        <v>2006</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="C36" s="1">
-        <v>3001</v>
+        <v>6001</v>
       </c>
       <c r="D36" s="1">
         <v>0</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>85</v>
+      <c r="E36" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="1">
-        <v>3017</v>
+      <c r="A37" s="4">
+        <v>2007</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C37" s="1">
-        <v>3001</v>
+        <v>7006</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>86</v>
+      <c r="E37" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="1">
-        <v>3018</v>
+      <c r="A38" s="4">
+        <v>2008</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="C38" s="1">
-        <v>6009</v>
+        <v>4001</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>89</v>
+      <c r="E38" s="5" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="1">
-        <v>3019</v>
+      <c r="A39" s="4">
+        <v>2009</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3001</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>90</v>
+        <v>18</v>
+      </c>
+      <c r="C39" s="4">
+        <v>2001</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
+        <v>3001</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3001</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>3002</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>3003</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>3004</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="1">
+        <v>3001</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>3005</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>3006</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>3007</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>3008</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" s="1">
+        <v>7006</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="4">
+        <v>3009</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="4">
+        <v>3001</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>3010</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>3011</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>3012</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>3013</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>3014</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>3015</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>3016</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>3017</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>3018</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>3019</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
         <v>3020</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="1">
-        <v>9001</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="1">
+      <c r="B59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
         <v>3021</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="1">
-        <v>3001</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>106</v>
+      <c r="B60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>4001</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4001</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>4002</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>4003</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="4">
+        <v>4004</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="4">
+        <v>4001</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>4005</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>4006</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="4">
+        <v>4007</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="4">
+        <v>4008</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" s="4">
+        <v>4009</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="4">
+        <v>4001</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>5001</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="1">
+        <v>5001</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>5002</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>5003</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" s="4">
+        <v>5004</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="4">
+        <v>5001</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>5005</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>5006</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="4">
+        <v>5007</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="4">
+        <v>5008</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="1">
+        <v>7006</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="4">
+        <v>5009</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="4">
+        <v>5001</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1567,10 +2340,10 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
